--- a/KGID/ExcelTemplate/FileUpload/Book1.xlsx
+++ b/KGID/ExcelTemplate/FileUpload/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\latest15-1-2022\14d\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSG\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>Proposer DDO Code</t>
   </si>
@@ -176,94 +176,55 @@
     <t>K  BENEFIT</t>
   </si>
   <si>
-    <t>Bajaj</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
     <t>MALLUS</t>
   </si>
   <si>
-    <t>MEW1386</t>
-  </si>
-  <si>
-    <t>JEEP TRAILOR</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>DIVISIONAL MANAGER</t>
-  </si>
-  <si>
-    <t>K.F.D.C.LTD., DHARWAD DIIVISIO</t>
-  </si>
-  <si>
     <t>BONUS</t>
   </si>
   <si>
-    <t>MEL6603</t>
-  </si>
-  <si>
-    <t>TELCO TIPPER</t>
-  </si>
-  <si>
-    <t>ASST.EXECUTIVE ENGINEER</t>
-  </si>
-  <si>
-    <t>K N N L,</t>
-  </si>
-  <si>
-    <t>11521D</t>
-  </si>
-  <si>
-    <t>MEL6556</t>
-  </si>
-  <si>
-    <t>JC6012</t>
-  </si>
-  <si>
-    <t>J6L5FCHM221037</t>
-  </si>
-  <si>
-    <t>HINDUSTAN MOBIL</t>
-  </si>
-  <si>
-    <t>SUPERINTENDENT OF POLICE</t>
-  </si>
-  <si>
-    <t>PCMT  WORK SHOP,</t>
-  </si>
-  <si>
-    <t>MEW7556</t>
-  </si>
-  <si>
-    <t>692DOI6703363</t>
-  </si>
-  <si>
-    <t>TATA BOX TYPE T</t>
-  </si>
-  <si>
-    <t>ASST. EXECUTIVE ENGINEER,</t>
-  </si>
-  <si>
-    <t>W &amp; M SUB DIVISION,</t>
-  </si>
-  <si>
-    <t>14028O</t>
-  </si>
-  <si>
-    <t>MEE8140</t>
-  </si>
-  <si>
-    <t>FIRE FIGHTERS</t>
-  </si>
-  <si>
-    <t>REGIONAL FIRE STATION OFFICER</t>
-  </si>
-  <si>
-    <t>KAR. FIRE &amp; EMERGENCY</t>
+    <t>KA05G6361</t>
+  </si>
+  <si>
+    <t>U3S5C0HB258096</t>
+  </si>
+  <si>
+    <t>ME3U3S5C0HB258096</t>
+  </si>
+  <si>
+    <t>ROYAL-ENFIELD (UNIT OF EICHER LTD)</t>
+  </si>
+  <si>
+    <t>SOLO</t>
+  </si>
+  <si>
+    <t>ROYAL ENFIELD</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>DISTRICT FIRE STATION OFFICER,</t>
+  </si>
+  <si>
+    <t>KAR. ST. FIRE &amp; EMERGENCY</t>
+  </si>
+  <si>
+    <t>MARRON</t>
+  </si>
+  <si>
+    <t>Maruthi</t>
+  </si>
+  <si>
+    <t>MARUTHI</t>
+  </si>
+  <si>
+    <t>ADMINISTRATIVE OFFICER,</t>
+  </si>
+  <si>
+    <t>NCC DIRECTORATE (NCC CELL)</t>
   </si>
 </sst>
 </file>
@@ -287,7 +248,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,12 +258,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,11 +305,6 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -636,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX6"/>
+  <dimension ref="A1:AX3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +603,7 @@
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -663,7 +613,7 @@
     <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="31" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
@@ -674,12 +624,13 @@
     <col min="28" max="28" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="8" bestFit="1" customWidth="1"/>
@@ -688,7 +639,7 @@
     <col min="43" max="43" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="21.42578125" bestFit="1" customWidth="1"/>
@@ -753,7 +704,7 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
@@ -795,7 +746,7 @@
       <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
       <c r="AI1" s="4" t="s">
@@ -847,548 +798,215 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7">
+        <v>39553</v>
+      </c>
+      <c r="L2">
+        <v>26</v>
+      </c>
+      <c r="M2">
+        <v>1079316</v>
+      </c>
+      <c r="N2">
+        <v>104548</v>
+      </c>
+      <c r="O2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2">
+        <v>1300</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="T2" s="7">
+        <v>39448</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
         <v>1</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="X2">
+        <v>11</v>
+      </c>
+      <c r="Y2">
+        <v>12</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC2">
+        <v>1215861</v>
+      </c>
+      <c r="AD2">
+        <v>6055</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>43700</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>44065</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>43700</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>44065</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>50</v>
+      </c>
+      <c r="AK2">
+        <v>526512</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7">
+      <c r="J3" s="7">
+        <v>42825</v>
+      </c>
+      <c r="L3">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q3">
+        <v>346</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3" s="7">
+        <v>42767</v>
+      </c>
+      <c r="U3">
+        <v>350</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>2</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC3">
+        <v>1232229</v>
+      </c>
+      <c r="AD3">
+        <v>2965</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>44243</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>44607</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>44243</v>
+      </c>
+      <c r="AH3" s="7">
+        <v>44607</v>
+      </c>
+      <c r="AI3">
+        <v>30</v>
+      </c>
+      <c r="AJ3">
         <v>0</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="7" t="s">
+      <c r="AK3">
+        <v>102853</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ3">
+        <v>2</v>
+      </c>
+      <c r="AR3" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7">
-        <v>1560</v>
-      </c>
-      <c r="R2" s="7">
+      <c r="AS3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT3" s="7">
+        <v>48303</v>
+      </c>
+      <c r="AU3">
         <v>0</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="10">
-        <v>26299</v>
-      </c>
-      <c r="U2" s="7">
+      <c r="AV3">
         <v>0</v>
       </c>
-      <c r="V2" s="7">
-        <v>1</v>
-      </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7">
-        <v>16</v>
-      </c>
-      <c r="Y2" s="7">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC2" s="7">
-        <v>49568</v>
-      </c>
-      <c r="AD2" s="7">
-        <v>10534</v>
-      </c>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8">
-        <v>43674</v>
-      </c>
-      <c r="AH2" s="8">
-        <v>44039</v>
-      </c>
-      <c r="AI2" s="7">
-        <v>50</v>
-      </c>
-      <c r="AJ2" s="7">
+      <c r="AW3">
         <v>0</v>
       </c>
-      <c r="AK2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ2" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="7" t="s">
+      <c r="AX3" t="s">
         <v>51</v>
-      </c>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7">
-        <v>3150</v>
-      </c>
-      <c r="R3" s="7">
-        <v>3</v>
-      </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="10">
-        <v>27760</v>
-      </c>
-      <c r="U3" s="7">
-        <v>5000</v>
-      </c>
-      <c r="V3" s="7">
-        <v>1</v>
-      </c>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7">
-        <v>7</v>
-      </c>
-      <c r="Y3" s="7">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC3" s="7">
-        <v>51533</v>
-      </c>
-      <c r="AD3" s="7">
-        <v>10987</v>
-      </c>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8">
-        <v>43495</v>
-      </c>
-      <c r="AH3" s="8">
-        <v>43859</v>
-      </c>
-      <c r="AI3" s="7">
-        <v>20</v>
-      </c>
-      <c r="AJ3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ3" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS3" s="7"/>
-      <c r="AT3" s="8"/>
-      <c r="AU3" s="7">
-        <v>825</v>
-      </c>
-      <c r="AV3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7">
-        <v>14034</v>
-      </c>
-      <c r="R4" s="7">
-        <v>7</v>
-      </c>
-      <c r="S4" s="7"/>
-      <c r="T4" s="10">
-        <v>26299</v>
-      </c>
-      <c r="U4" s="7">
-        <v>14034</v>
-      </c>
-      <c r="V4" s="7">
-        <v>1</v>
-      </c>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7">
-        <v>7</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>5</v>
-      </c>
-      <c r="Z4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC4" s="7">
-        <v>52253</v>
-      </c>
-      <c r="AD4" s="7">
-        <v>13373</v>
-      </c>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8">
-        <v>43229</v>
-      </c>
-      <c r="AH4" s="8">
-        <v>43593</v>
-      </c>
-      <c r="AI4" s="7">
-        <v>30</v>
-      </c>
-      <c r="AJ4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ4" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS4" s="7"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="9">
-        <v>3448076703367</v>
-      </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7">
-        <v>3500</v>
-      </c>
-      <c r="R5" s="7">
-        <v>3</v>
-      </c>
-      <c r="S5" s="7"/>
-      <c r="T5" s="10">
-        <v>27760</v>
-      </c>
-      <c r="U5" s="7">
-        <v>11500</v>
-      </c>
-      <c r="V5" s="7">
-        <v>1</v>
-      </c>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>52499</v>
-      </c>
-      <c r="AD5" s="7">
-        <v>16447</v>
-      </c>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8">
-        <v>43349</v>
-      </c>
-      <c r="AH5" s="8">
-        <v>43713</v>
-      </c>
-      <c r="AI5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="8"/>
-      <c r="AU5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7">
-        <v>325</v>
-      </c>
-      <c r="R6" s="7">
-        <v>6</v>
-      </c>
-      <c r="S6" s="7"/>
-      <c r="T6" s="10">
-        <v>27395</v>
-      </c>
-      <c r="U6" s="7">
-        <v>5000</v>
-      </c>
-      <c r="V6" s="7">
-        <v>1</v>
-      </c>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7">
-        <v>16</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>16</v>
-      </c>
-      <c r="Z6" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC6" s="7">
-        <v>52777</v>
-      </c>
-      <c r="AD6" s="7">
-        <v>7732</v>
-      </c>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8">
-        <v>44378</v>
-      </c>
-      <c r="AH6" s="8">
-        <v>44742</v>
-      </c>
-      <c r="AI6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="7">
-        <v>45</v>
-      </c>
-      <c r="AK6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP6" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ6" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/KGID/ExcelTemplate/FileUpload/Book1.xlsx
+++ b/KGID/ExcelTemplate/FileUpload/Book1.xlsx
@@ -1,30 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSG\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F778BE2-4B73-451D-B1BE-4DC8B3D9E52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>Proposer DDO Code</t>
   </si>
@@ -179,58 +170,109 @@
     <t>G</t>
   </si>
   <si>
+    <t>TIPPERS</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CHIEF OFFICER</t>
+  </si>
+  <si>
+    <t>TOWN PANCHAYATH</t>
+  </si>
+  <si>
     <t>MALLUS</t>
   </si>
   <si>
     <t>BONUS</t>
   </si>
   <si>
-    <t>KA05G6361</t>
-  </si>
-  <si>
-    <t>U3S5C0HB258096</t>
-  </si>
-  <si>
-    <t>ME3U3S5C0HB258096</t>
-  </si>
-  <si>
-    <t>ROYAL-ENFIELD (UNIT OF EICHER LTD)</t>
-  </si>
-  <si>
-    <t>SOLO</t>
-  </si>
-  <si>
-    <t>ROYAL ENFIELD</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>DISTRICT FIRE STATION OFFICER,</t>
-  </si>
-  <si>
-    <t>KAR. ST. FIRE &amp; EMERGENCY</t>
-  </si>
-  <si>
-    <t>MARRON</t>
-  </si>
-  <si>
-    <t>Maruthi</t>
-  </si>
-  <si>
-    <t>MARUTHI</t>
-  </si>
-  <si>
-    <t>ADMINISTRATIVE OFFICER,</t>
-  </si>
-  <si>
-    <t>NCC DIRECTORATE (NCC CELL)</t>
+    <t>KA37B2548</t>
+  </si>
+  <si>
+    <t>275IDI07DSYS45546</t>
+  </si>
+  <si>
+    <t>MAT445237HVE22475</t>
+  </si>
+  <si>
+    <t>Bajaj</t>
+  </si>
+  <si>
+    <t>KA37A6654</t>
+  </si>
+  <si>
+    <t>4H3211/1420026</t>
+  </si>
+  <si>
+    <t>BL9H15DB10609</t>
+  </si>
+  <si>
+    <t>BEML LIMITED</t>
+  </si>
+  <si>
+    <t>STEEL BODY</t>
+  </si>
+  <si>
+    <t>JCB</t>
+  </si>
+  <si>
+    <t>TOW MUNICIPAL COUNCIL</t>
+  </si>
+  <si>
+    <t>GOLDENYELL</t>
+  </si>
+  <si>
+    <t>KA18B5956</t>
+  </si>
+  <si>
+    <t>F8BIN4716882</t>
+  </si>
+  <si>
+    <t>MA3EVB11S01522759</t>
+  </si>
+  <si>
+    <t>MARUTI SUZUKI INDIA LTD</t>
+  </si>
+  <si>
+    <t>SALOON</t>
+  </si>
+  <si>
+    <t>AMBULANCES</t>
+  </si>
+  <si>
+    <t>ADMN MEDICAL OFFICER</t>
+  </si>
+  <si>
+    <t>TALUKA GENERAL HOSPITAL,</t>
+  </si>
+  <si>
+    <t>S WHITE</t>
+  </si>
+  <si>
+    <t>275MPFI01AYXK03240</t>
+  </si>
+  <si>
+    <t>MAT559005MVA05173</t>
+  </si>
+  <si>
+    <t>M/s Tata Engg locomotive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TATA </t>
+  </si>
+  <si>
+    <t>P D O</t>
+  </si>
+  <si>
+    <t>JALGERI GRAM PANCHAYATH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -285,19 +327,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -311,7 +385,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -334,44 +408,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -399,14 +473,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -434,6 +525,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,154 +553,178 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AX5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
@@ -603,43 +735,43 @@
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="31" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="8" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="21.42578125" bestFit="1" customWidth="1"/>
@@ -674,7 +806,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -701,13 +833,13 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
@@ -719,10 +851,10 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
@@ -737,25 +869,25 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="6" t="s">
         <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
@@ -767,34 +899,34 @@
       <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="5" t="s">
         <v>41</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AR1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AS1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AT1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AU1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AV1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AW1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AX1" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -802,83 +934,83 @@
       <c r="H2">
         <v>2</v>
       </c>
-      <c r="J2" s="7">
-        <v>39553</v>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="9">
+        <v>43951</v>
       </c>
       <c r="L2">
-        <v>26</v>
-      </c>
-      <c r="M2">
-        <v>1079316</v>
-      </c>
-      <c r="N2">
-        <v>104548</v>
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" t="s">
+        <v>59</v>
       </c>
       <c r="O2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2">
-        <v>1300</v>
+        <v>60</v>
       </c>
       <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="T2" s="9">
+        <v>42856</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>16</v>
+      </c>
+      <c r="Y2">
+        <v>16</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2">
+        <v>1241747</v>
+      </c>
+      <c r="AD2">
+        <v>13611</v>
+      </c>
+      <c r="AE2" s="9">
+        <v>44252</v>
+      </c>
+      <c r="AF2" s="9">
+        <v>44616</v>
+      </c>
+      <c r="AG2" s="9">
+        <v>44252</v>
+      </c>
+      <c r="AH2" s="9">
+        <v>44616</v>
+      </c>
+      <c r="AI2">
+        <v>50</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>582429</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ2">
         <v>5</v>
-      </c>
-      <c r="T2" s="7">
-        <v>39448</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>11</v>
-      </c>
-      <c r="Y2">
-        <v>12</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC2">
-        <v>1215861</v>
-      </c>
-      <c r="AD2">
-        <v>6055</v>
-      </c>
-      <c r="AE2" s="7">
-        <v>43700</v>
-      </c>
-      <c r="AF2" s="7">
-        <v>44065</v>
-      </c>
-      <c r="AG2" s="7">
-        <v>43700</v>
-      </c>
-      <c r="AH2" s="7">
-        <v>44065</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>50</v>
-      </c>
-      <c r="AK2">
-        <v>526512</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ2">
-        <v>1</v>
       </c>
       <c r="AR2" t="s">
         <v>50</v>
@@ -893,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="AX2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
@@ -901,100 +1033,97 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="9">
+        <v>42354</v>
+      </c>
+      <c r="L3">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3" s="9">
+        <v>42095</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>16</v>
+      </c>
+      <c r="Y3">
+        <v>16</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3">
+        <v>1241592</v>
+      </c>
+      <c r="AD3">
+        <v>22447</v>
+      </c>
+      <c r="AE3" s="9">
+        <v>44225</v>
+      </c>
+      <c r="AF3" s="9">
+        <v>44589</v>
+      </c>
+      <c r="AG3" s="9">
+        <v>44225</v>
+      </c>
+      <c r="AH3" s="9">
+        <v>44589</v>
+      </c>
+      <c r="AI3">
+        <v>50</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>2071324</v>
+      </c>
+      <c r="AO3" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="7">
-        <v>42825</v>
-      </c>
-      <c r="L3">
-        <v>35</v>
-      </c>
-      <c r="M3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q3">
-        <v>346</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3" s="7">
-        <v>42767</v>
-      </c>
-      <c r="U3">
-        <v>350</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3">
-        <v>2</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC3">
-        <v>1232229</v>
-      </c>
-      <c r="AD3">
-        <v>2965</v>
-      </c>
-      <c r="AE3" s="7">
-        <v>44243</v>
-      </c>
-      <c r="AF3" s="7">
-        <v>44607</v>
-      </c>
-      <c r="AG3" s="7">
-        <v>44243</v>
-      </c>
-      <c r="AH3" s="7">
-        <v>44607</v>
-      </c>
-      <c r="AI3">
-        <v>30</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>102853</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>60</v>
-      </c>
       <c r="AP3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR3" t="s">
         <v>50</v>
       </c>
       <c r="AS3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT3" s="7">
-        <v>48303</v>
+        <v>68</v>
+      </c>
+      <c r="AT3" s="9">
+        <v>44973</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1006,7 +1135,212 @@
         <v>0</v>
       </c>
       <c r="AX3" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="9">
+        <v>41901</v>
+      </c>
+      <c r="L4">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4" s="9">
+        <v>41760</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>16</v>
+      </c>
+      <c r="Y4">
+        <v>16</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC4">
+        <v>1241762</v>
+      </c>
+      <c r="AD4">
+        <v>10673</v>
+      </c>
+      <c r="AE4" s="9">
+        <v>44264</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>44628</v>
+      </c>
+      <c r="AG4" s="9">
+        <v>44264</v>
+      </c>
+      <c r="AH4" s="9">
+        <v>44628</v>
+      </c>
+      <c r="AI4">
+        <v>30</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>298801</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ4">
+        <v>5</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT4" s="9">
+        <v>43473</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>39</v>
+      </c>
+      <c r="M5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q5">
+        <v>1675</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="T5" s="9">
+        <v>44197</v>
+      </c>
+      <c r="U5">
+        <v>1675</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <v>7</v>
+      </c>
+      <c r="Y5">
+        <v>5</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC5">
+        <v>1242020</v>
+      </c>
+      <c r="AD5">
+        <v>14280</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>44298</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>44662</v>
+      </c>
+      <c r="AG5" s="9">
+        <v>44298</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>44662</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>572000</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
